--- a/data/packages.xlsx
+++ b/data/packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E9931-7209-4B03-8A5B-5802FE64AFDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE1D25-1387-4E36-949A-E6B67C24A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -67,15 +67,9 @@
     <t>[website](https://dplyr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-transformation.pdf)</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactive and reproducible documents with R (pdf, word, html output). </t>
-  </si>
-  <si>
     <t>[website](https://ggplot2.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-visualization-2.1.pdf)</t>
   </si>
   <si>
-    <t>[R Markdown - The definitive guide (book)](https://bookdown.org/yihui/rmarkdown/), [reference guide](https://www.rstudio.com/wp-content/uploads/2015/03/rmarkdown-reference.pdf),  [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/rmarkdown-2.0.pdf)</t>
-  </si>
-  <si>
     <t>Packag for fast data manipulation. Well integrated with dplyr and data.table. Provides fast functions for data transformation, aggregation, linear models, statistical functions, grouping, … Have a look at it if you have large data sets and your data operations take a long time</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>fast data analysis, big data</t>
   </si>
   <si>
-    <t>reports, markdown, documents</t>
-  </si>
-  <si>
     <t>colors, data visualization</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>`collapse`</t>
   </si>
   <si>
-    <t>`rmarkdown`</t>
-  </si>
-  <si>
     <t>`ggsci`</t>
   </si>
   <si>
@@ -242,6 +230,18 @@
   </si>
   <si>
     <t>[website with different articles to get started](https://patchwork.data-imaginist.com/)</t>
+  </si>
+  <si>
+    <t>sjPlot</t>
+  </si>
+  <si>
+    <t>statistics, data visualizations</t>
+  </si>
+  <si>
+    <t>Collection of plotting and table output functions for data visualization of statistical results</t>
+  </si>
+  <si>
+    <t>[website](https://strengejacke.github.io/sjPlot/index.html)</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1128,24 +1128,24 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1170,52 +1170,52 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1254,128 +1254,128 @@
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
